--- a/frontend/data/wasteitemsexcel.xlsx
+++ b/frontend/data/wasteitemsexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\KUL\Thesis\data_waste_collection_app\frontend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734A2586-E2AC-45C1-9B75-E3A85461A628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787D1CBA-8F15-4D06-AAD1-D20AB45E71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>this is image 2</t>
+  </si>
+  <si>
+    <t>Dit is de eerste afbeelding</t>
+  </si>
+  <si>
+    <t>Dit is de tweede afbeelding</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB177D8D-0680-4D49-8ED2-39533DF946A1}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -954,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207FEB07-A67A-4617-8B73-304D937D831E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1054,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1071,7 +1077,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1094,7 +1100,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -1117,7 +1123,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1140,7 +1146,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1163,7 +1169,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -1186,7 +1192,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
@@ -1209,7 +1215,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1232,7 +1238,7 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
@@ -1255,7 +1261,7 @@
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
@@ -1271,6 +1277,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cd9202a6-e211-4275-8e27-b09f1131300c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100371174F9DAA68943A4F64D1C7FA5190F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4f3fe012b06e40ce9d5bc16e3e412a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cd9202a6-e211-4275-8e27-b09f1131300c" xmlns:ns4="61dace89-6e26-49db-a801-3b0b4dff7cd3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="526ac9343ee1d1ddb35fdc31bf83d2e3" ns3:_="" ns4:_="">
     <xsd:import namespace="cd9202a6-e211-4275-8e27-b09f1131300c"/>
@@ -1461,24 +1484,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEF2F89-7996-4971-8EDE-6D5F154A3C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="61dace89-6e26-49db-a801-3b0b4dff7cd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cd9202a6-e211-4275-8e27-b09f1131300c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9E4F48-BA33-4883-999F-8D8FBDB5FA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1495,29 +1526,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEF2F89-7996-4971-8EDE-6D5F154A3C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="61dace89-6e26-49db-a801-3b0b4dff7cd3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/frontend/data/wasteitemsexcel.xlsx
+++ b/frontend/data/wasteitemsexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\KUL\Thesis\data_waste_collection_app\frontend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787D1CBA-8F15-4D06-AAD1-D20AB45E71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A57A115-4065-47B1-99CD-3B09F3E97C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -45,9 +45,6 @@
     <t>imgCount</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>name_en</t>
   </si>
   <si>
@@ -208,6 +205,12 @@
   </si>
   <si>
     <t>Dit is de tweede afbeelding</t>
+  </si>
+  <si>
+    <t>Don't know if it is recyclable? Click the image!</t>
+  </si>
+  <si>
+    <t>Niet zeker of het recycleerbaar is? Klik op de foto!</t>
   </si>
 </sst>
 </file>
@@ -574,31 +577,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB177D8D-0680-4D49-8ED2-39533DF946A1}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="11" width="13.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="10" width="40.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -622,17 +625,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -640,38 +640,38 @@
         <f>COUNTIF(Content!B:B,A2)</f>
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -679,38 +679,38 @@
         <f>COUNTIF(Content!B:B,A3)</f>
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -718,38 +718,38 @@
         <f>COUNTIF(Content!B:B,A4)</f>
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -757,38 +757,38 @@
         <f>COUNTIF(Content!B:B,A5)</f>
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -796,26 +796,32 @@
         <f>COUNTIF(Content!B:B,A6)</f>
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -823,26 +829,26 @@
         <f>COUNTIF(Content!B:B,A7)</f>
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
+      <c r="K7">
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -850,26 +856,26 @@
         <f>COUNTIF(Content!B:B,A8)</f>
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
-        <v>44</v>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -877,26 +883,26 @@
         <f>COUNTIF(Content!B:B,A9)</f>
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
+      <c r="K9">
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -904,26 +910,26 @@
         <f>COUNTIF(Content!B:B,A10)</f>
         <v>1</v>
       </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
+      <c r="K10">
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -931,8 +937,11 @@
         <f>COUNTIF(Content!B:B,A11)</f>
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>42</v>
@@ -940,13 +949,10 @@
       <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
+      <c r="K11">
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
         <v>0</v>
       </c>
     </row>
@@ -960,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207FEB07-A67A-4617-8B73-304D937D831E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -976,22 +982,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1002,19 +1008,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1025,19 +1031,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1048,19 +1054,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1071,19 +1077,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,19 +1100,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,19 +1123,19 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1140,19 +1146,19 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1163,19 +1169,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1186,19 +1192,19 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1209,19 +1215,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1232,19 +1238,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1255,19 +1261,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/data/wasteitemsexcel.xlsx
+++ b/frontend/data/wasteitemsexcel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\KUL\Thesis\data_waste_collection_app\frontend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A57A115-4065-47B1-99CD-3B09F3E97C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FDD346-6A52-4D56-BA71-32A9DA743C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Content" sheetId="2" r:id="rId2"/>
+    <sheet name="Messages" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -211,6 +212,153 @@
   </si>
   <si>
     <t>Niet zeker of het recycleerbaar is? Klik op de foto!</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>toolbarTitle</t>
+  </si>
+  <si>
+    <t>listTitle</t>
+  </si>
+  <si>
+    <t>loadingText</t>
+  </si>
+  <si>
+    <t>submitButton</t>
+  </si>
+  <si>
+    <t>What did you throw away?</t>
+  </si>
+  <si>
+    <t>Let's collect data!</t>
+  </si>
+  <si>
+    <t>Loading application...</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Laten we data verzamelen!</t>
+  </si>
+  <si>
+    <t>Wat heeft u weggegooid?</t>
+  </si>
+  <si>
+    <t>Verstuur</t>
+  </si>
+  <si>
+    <t>defaultThankYouMessage</t>
+  </si>
+  <si>
+    <t>co2MessagePart1</t>
+  </si>
+  <si>
+    <t>co2MessagePart2</t>
+  </si>
+  <si>
+    <t>askFeedback</t>
+  </si>
+  <si>
+    <t>clickHere</t>
+  </si>
+  <si>
+    <t>normalBin</t>
+  </si>
+  <si>
+    <t>Thank you for registering your waste!</t>
+  </si>
+  <si>
+    <t>This recycle bin already saved</t>
+  </si>
+  <si>
+    <t>kg of CO2!</t>
+  </si>
+  <si>
+    <t>Would you be so kind to give some feedback on the app?</t>
+  </si>
+  <si>
+    <t>Click here</t>
+  </si>
+  <si>
+    <t>Normal bin</t>
+  </si>
+  <si>
+    <t>Applicatie aan het laden...</t>
+  </si>
+  <si>
+    <t>Bedankt om uw afval te registreren!</t>
+  </si>
+  <si>
+    <t>Deze vuilbak heeft al</t>
+  </si>
+  <si>
+    <t>kg CO2 bespaard!</t>
+  </si>
+  <si>
+    <t>Zou u aub wat feedback willen geven over de app?</t>
+  </si>
+  <si>
+    <t>Klik hier</t>
+  </si>
+  <si>
+    <t>Normale vuilbak</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Papiamento!</t>
+  </si>
+  <si>
+    <t>Español!</t>
+  </si>
+  <si>
+    <t>recyclingBin</t>
+  </si>
+  <si>
+    <t>nonRecyclingBin</t>
+  </si>
+  <si>
+    <t>hasToBeRecyclingBin</t>
+  </si>
+  <si>
+    <t>hasToBeNonRecyclingBin</t>
+  </si>
+  <si>
+    <t>Recycling bin</t>
+  </si>
+  <si>
+    <t>Non-recycling bin</t>
+  </si>
+  <si>
+    <t>This item belongs in the recycling bin</t>
+  </si>
+  <si>
+    <t>This item belongs in the non-recycling bin</t>
+  </si>
+  <si>
+    <t>Recyclingvuilbak</t>
+  </si>
+  <si>
+    <t>Niet-recyclingvuilbak</t>
+  </si>
+  <si>
+    <t>Dit item behoort in de recyclingvuilbak</t>
+  </si>
+  <si>
+    <t>Dit item behoort in de niet-recyclingvuilbak</t>
   </si>
 </sst>
 </file>
@@ -579,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB177D8D-0680-4D49-8ED2-39533DF946A1}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -967,7 +1115,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,24 +1430,269 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cd9202a6-e211-4275-8e27-b09f1131300c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444BD956-8AE9-416D-A362-3A03BEABFA02}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="4" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="11" width="37.21875" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
+    <col min="13" max="13" width="23.21875" customWidth="1"/>
+    <col min="14" max="14" width="34.88671875" customWidth="1"/>
+    <col min="15" max="15" width="38" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100371174F9DAA68943A4F64D1C7FA5190F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4f3fe012b06e40ce9d5bc16e3e412a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cd9202a6-e211-4275-8e27-b09f1131300c" xmlns:ns4="61dace89-6e26-49db-a801-3b0b4dff7cd3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="526ac9343ee1d1ddb35fdc31bf83d2e3" ns3:_="" ns4:_="">
     <xsd:import namespace="cd9202a6-e211-4275-8e27-b09f1131300c"/>
@@ -1490,32 +1883,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEF2F89-7996-4971-8EDE-6D5F154A3C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="61dace89-6e26-49db-a801-3b0b4dff7cd3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cd9202a6-e211-4275-8e27-b09f1131300c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9E4F48-BA33-4883-999F-8D8FBDB5FA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1532,4 +1917,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEF2F89-7996-4971-8EDE-6D5F154A3C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="61dace89-6e26-49db-a801-3b0b4dff7cd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/frontend/data/wasteitemsexcel.xlsx
+++ b/frontend/data/wasteitemsexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\KUL\Thesis\data_waste_collection_app\frontend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FDD346-6A52-4D56-BA71-32A9DA743C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39F7E5-6117-404D-82DF-D7D5486F14D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>Dit item behoort in de niet-recyclingvuilbak</t>
+  </si>
+  <si>
+    <t>To get more information about an item, press the picture!</t>
+  </si>
+  <si>
+    <t>moreInformationPressPicture</t>
+  </si>
+  <si>
+    <t>Om meer info te krijgen over een item, druk op de foto!</t>
   </si>
 </sst>
 </file>
@@ -1432,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444BD956-8AE9-416D-A362-3A03BEABFA02}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,10 +1457,10 @@
     <col min="13" max="13" width="23.21875" customWidth="1"/>
     <col min="14" max="14" width="34.88671875" customWidth="1"/>
     <col min="15" max="15" width="38" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" customWidth="1"/>
+    <col min="16" max="16" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -1497,8 +1506,11 @@
       <c r="O1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1544,8 +1556,11 @@
       <c r="O2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1591,8 +1606,11 @@
       <c r="O3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1638,8 +1656,11 @@
       <c r="O4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1684,6 +1705,9 @@
       </c>
       <c r="O5" t="s">
         <v>106</v>
+      </c>
+      <c r="P5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1693,6 +1717,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100371174F9DAA68943A4F64D1C7FA5190F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4f3fe012b06e40ce9d5bc16e3e412a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cd9202a6-e211-4275-8e27-b09f1131300c" xmlns:ns4="61dace89-6e26-49db-a801-3b0b4dff7cd3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="526ac9343ee1d1ddb35fdc31bf83d2e3" ns3:_="" ns4:_="">
     <xsd:import namespace="cd9202a6-e211-4275-8e27-b09f1131300c"/>
@@ -1883,15 +1916,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1901,6 +1925,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9E4F48-BA33-4883-999F-8D8FBDB5FA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1915,14 +1947,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/frontend/data/wasteitemsexcel.xlsx
+++ b/frontend/data/wasteitemsexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\KUL\Thesis\data_waste_collection_app\frontend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39F7E5-6117-404D-82DF-D7D5486F14D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37891D56-F61F-4DAB-B496-1FFCC5175E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,16 +1144,16 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1436,15 +1436,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444BD956-8AE9-416D-A362-3A03BEABFA02}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1460,57 +1461,60 @@
     <col min="16" max="16" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1717,15 +1721,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100371174F9DAA68943A4F64D1C7FA5190F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4f3fe012b06e40ce9d5bc16e3e412a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cd9202a6-e211-4275-8e27-b09f1131300c" xmlns:ns4="61dace89-6e26-49db-a801-3b0b4dff7cd3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="526ac9343ee1d1ddb35fdc31bf83d2e3" ns3:_="" ns4:_="">
     <xsd:import namespace="cd9202a6-e211-4275-8e27-b09f1131300c"/>
@@ -1916,6 +1911,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1925,14 +1929,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9E4F48-BA33-4883-999F-8D8FBDB5FA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1947,6 +1943,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/frontend/data/wasteitemsexcel.xlsx
+++ b/frontend/data/wasteitemsexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\KUL\Thesis\data_waste_collection_app\frontend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37891D56-F61F-4DAB-B496-1FFCC5175E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB15A73-5FAA-4551-B685-D971E891AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
+    <workbookView xWindow="-25440" yWindow="510" windowWidth="21600" windowHeight="11430" activeTab="2" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -368,6 +368,33 @@
   </si>
   <si>
     <t>Om meer info te krijgen over een item, druk op de foto!</t>
+  </si>
+  <si>
+    <t>Camera access denied. Please enable camera to take photo.</t>
+  </si>
+  <si>
+    <t>cameraAccessDenied</t>
+  </si>
+  <si>
+    <t>Camera toestemming geweigerd. Schakel deze aub in.</t>
+  </si>
+  <si>
+    <t>verifyWaste</t>
+  </si>
+  <si>
+    <t>Do you want to verify your waste by taking a picture of it?</t>
+  </si>
+  <si>
+    <t>Wilt u uw afval verifiëren door er een foto van te nemen?</t>
+  </si>
+  <si>
+    <t>It helps to improve the quality of the project!</t>
+  </si>
+  <si>
+    <t>improveQualityProject</t>
+  </si>
+  <si>
+    <t>Het helpt om de kwaliteit van het project te verbeteren!</t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1469,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444BD956-8AE9-416D-A362-3A03BEABFA02}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,15 +1481,19 @@
     <col min="1" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="4" width="30.5546875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="11" width="37.21875" customWidth="1"/>
+    <col min="6" max="10" width="37.21875" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" customWidth="1"/>
     <col min="12" max="12" width="25.44140625" customWidth="1"/>
     <col min="13" max="13" width="23.21875" customWidth="1"/>
     <col min="14" max="14" width="34.88671875" customWidth="1"/>
     <col min="15" max="15" width="38" customWidth="1"/>
     <col min="16" max="16" width="51.21875" customWidth="1"/>
+    <col min="17" max="17" width="52.33203125" customWidth="1"/>
+    <col min="18" max="18" width="51.44140625" customWidth="1"/>
+    <col min="19" max="19" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1510,11 +1542,17 @@
       <c r="P1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1563,8 +1601,17 @@
       <c r="P2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1613,8 +1660,17 @@
       <c r="P3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1663,8 +1719,17 @@
       <c r="P4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1712,6 +1777,20 @@
       </c>
       <c r="P5" t="s">
         <v>107</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AW8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1721,6 +1800,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cd9202a6-e211-4275-8e27-b09f1131300c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100371174F9DAA68943A4F64D1C7FA5190F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4f3fe012b06e40ce9d5bc16e3e412a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cd9202a6-e211-4275-8e27-b09f1131300c" xmlns:ns4="61dace89-6e26-49db-a801-3b0b4dff7cd3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="526ac9343ee1d1ddb35fdc31bf83d2e3" ns3:_="" ns4:_="">
     <xsd:import namespace="cd9202a6-e211-4275-8e27-b09f1131300c"/>
@@ -1911,24 +2007,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEF2F89-7996-4971-8EDE-6D5F154A3C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="61dace89-6e26-49db-a801-3b0b4dff7cd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cd9202a6-e211-4275-8e27-b09f1131300c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9E4F48-BA33-4883-999F-8D8FBDB5FA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1945,29 +2049,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEF2F89-7996-4971-8EDE-6D5F154A3C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="61dace89-6e26-49db-a801-3b0b4dff7cd3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/frontend/data/wasteitemsexcel.xlsx
+++ b/frontend/data/wasteitemsexcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\KUL\Thesis\data_waste_collection_app\frontend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB15A73-5FAA-4551-B685-D971E891AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0481C3-14F0-4005-A1DB-97173B31BF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25440" yWindow="510" windowWidth="21600" windowHeight="11430" activeTab="2" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -175,45 +175,9 @@
     <t>image1.png</t>
   </si>
   <si>
-    <t>Explanation in Papiamento</t>
-  </si>
-  <si>
-    <t>Explanation in Spanish</t>
-  </si>
-  <si>
     <t>image2.png</t>
   </si>
   <si>
-    <t>2 Small plastic bottle</t>
-  </si>
-  <si>
-    <t>2 Kleine plastic fles</t>
-  </si>
-  <si>
-    <t>second Explanation in Papiamento</t>
-  </si>
-  <si>
-    <t>second Explanation in Spanish</t>
-  </si>
-  <si>
-    <t>This is image 1</t>
-  </si>
-  <si>
-    <t>this is image 2</t>
-  </si>
-  <si>
-    <t>Dit is de eerste afbeelding</t>
-  </si>
-  <si>
-    <t>Dit is de tweede afbeelding</t>
-  </si>
-  <si>
-    <t>Don't know if it is recyclable? Click the image!</t>
-  </si>
-  <si>
-    <t>Niet zeker of het recycleerbaar is? Klik op de foto!</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
@@ -395,13 +359,175 @@
   </si>
   <si>
     <t>Het helpt om de kwaliteit van het project te verbeteren!</t>
+  </si>
+  <si>
+    <t>Plastic bottles that have a content of 550 ml or less</t>
+  </si>
+  <si>
+    <t>Plastic flesjes die een inhoud hebben van 550 ml of minder</t>
+  </si>
+  <si>
+    <t>smallplasticbottle.png</t>
+  </si>
+  <si>
+    <t>Plastic bottles that have a content of  more than 550 ml</t>
+  </si>
+  <si>
+    <t>Plastic flesjes die een inhoud hebben van meer dan 550 ml</t>
+  </si>
+  <si>
+    <t>dietcokebigbottle.png</t>
+  </si>
+  <si>
+    <t>bigwaterbottle.png</t>
+  </si>
+  <si>
+    <t>The brand is not important, only the size</t>
+  </si>
+  <si>
+    <t>Aluminium cans that have a content of 500 ml or less</t>
+  </si>
+  <si>
+    <t>Aluminium blikjes die een inhoud hebben van 500 ml of minder</t>
+  </si>
+  <si>
+    <t>Het merk is niet belangrijk, enkel de grootte</t>
+  </si>
+  <si>
+    <t>cocacolacan.png</t>
+  </si>
+  <si>
+    <t>dietpepsismallcan.png</t>
+  </si>
+  <si>
+    <t>Aluminium cans that have a content of more than 500 ml</t>
+  </si>
+  <si>
+    <t>Aluminium blikjes die een inhoud hebben van meer dan 500 ml</t>
+  </si>
+  <si>
+    <t>monsterbigcan.png</t>
+  </si>
+  <si>
+    <t>Paper cups that you can find at for example the coffee machine, are not recyclable on Aruba</t>
+  </si>
+  <si>
+    <t>Papieren bekers die je bijvoorbeeld bij de koffiemachine vindt, zijn niet recycleerbaar op Aruba</t>
+  </si>
+  <si>
+    <t>Paper food boxes that you can find at for example the cafeteria, are not recyclable on Aruba</t>
+  </si>
+  <si>
+    <t>Papieren voedseldozen die je bijvoorbeeld in de cafetaria vindt, zijn niet recycleerbaar op Aruba</t>
+  </si>
+  <si>
+    <t>papercup2.png</t>
+  </si>
+  <si>
+    <t>coloredpapercups.png</t>
+  </si>
+  <si>
+    <t>foodbox.png</t>
+  </si>
+  <si>
+    <t>Organic waste is any material that is biodegradable and comes from either a plant or an animal</t>
+  </si>
+  <si>
+    <t>Organisch afval is al het composteerbaar afval dat afkomstig is van dieren of planten</t>
+  </si>
+  <si>
+    <t>Voorbeelden zijn bananenschillen, etensresten, …</t>
+  </si>
+  <si>
+    <t>Examples are banana peels, food leftovers, …</t>
+  </si>
+  <si>
+    <t>bananapeel.png</t>
+  </si>
+  <si>
+    <t>organicwaste.png</t>
+  </si>
+  <si>
+    <t>Everything made out of glass belongs in this category</t>
+  </si>
+  <si>
+    <t>Alles gemaakt uit glas hoort in deze categorie</t>
+  </si>
+  <si>
+    <t>glassbottles.png</t>
+  </si>
+  <si>
+    <t>glasscocacola.png</t>
+  </si>
+  <si>
+    <t>In Aruba only aluminium cans and plastics of type 1, 2 and 5 are recycled</t>
+  </si>
+  <si>
+    <t>plastictypes125.png</t>
+  </si>
+  <si>
+    <t>If you are uncertain, you can look at the plastic number on your waste</t>
+  </si>
+  <si>
+    <t>plasticnumberexample.png</t>
+  </si>
+  <si>
+    <t>In Aruba worden enkel aluminium blikjes en plastics van soorten 1, 2 en 5 gerecycleerd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als je niet zeker bent, kan je zoeken naar het plastic nummer op je afval </t>
+  </si>
+  <si>
+    <t>Contrary to what you would think, paper and cardboard do not get recycled on Aruba so it belongs in the non-recycling bin</t>
+  </si>
+  <si>
+    <t>In tegenstelling tot wat je zou denken, papier en karton worden niet gerecycleerd op Aruba, het behoort dus in de niet-recycling vuilbak</t>
+  </si>
+  <si>
+    <t>papernotrecyclable.png</t>
+  </si>
+  <si>
+    <t>Everything that is not an aluminium can or a plastic of type 1, 2 and 5 does not get recycled in Aruba. Swipe to see some examples</t>
+  </si>
+  <si>
+    <t>Alles wat geen aluminium blikje of een plastic van type 1, 2 of 5 is, is niet recycleerbaar op Aruba. Swipe om wat voorbeelden te zien</t>
+  </si>
+  <si>
+    <t>Don't know if it is recyclable? Click the image for more information!</t>
+  </si>
+  <si>
+    <t>Niet zeker of het recycleerbaar is? Klik op de foto voor meer informatie!</t>
+  </si>
+  <si>
+    <t>nonrecycling.png</t>
+  </si>
+  <si>
+    <t>Thin, transparent plastic bags are made out of plastic type 4 and are not recyclable</t>
+  </si>
+  <si>
+    <t>plasticbagtype4.png</t>
+  </si>
+  <si>
+    <t>Plastic wrappers of candy and snacks are not recyclable</t>
+  </si>
+  <si>
+    <t>oreowrapper.png</t>
+  </si>
+  <si>
+    <t>paperandcardboard.png</t>
+  </si>
+  <si>
+    <t>Dunne, doorzichte plastic zakken zijn niet recycleerbaar</t>
+  </si>
+  <si>
+    <t>De verpakking van snoep en snacks zijn niet recycleerbaar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,13 +549,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -444,9 +589,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB177D8D-0680-4D49-8ED2-39533DF946A1}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +923,9 @@
     <col min="4" max="4" width="31.109375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="10" width="40.5546875" customWidth="1"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+    <col min="8" max="8" width="59.88671875" customWidth="1"/>
+    <col min="9" max="10" width="40.5546875" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -822,7 +973,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Content!B:B,A2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -830,10 +981,10 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G2" t="s">
@@ -861,7 +1012,7 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Content!B:B,A3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -869,10 +1020,10 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G3" t="s">
@@ -900,7 +1051,7 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Content!B:B,A4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -908,10 +1059,10 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G4" t="s">
@@ -939,7 +1090,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Content!B:B,A5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -947,10 +1098,10 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G5" t="s">
@@ -978,7 +1129,7 @@
       </c>
       <c r="B6">
         <f>COUNTIF(Content!B:B,A6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -986,18 +1137,20 @@
       <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
       <c r="K6">
         <v>1</v>
       </c>
@@ -1011,7 +1164,7 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Content!B:B,A7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1019,10 +1172,10 @@
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K7">
@@ -1038,7 +1191,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Content!B:B,A8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1046,10 +1199,10 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K8">
@@ -1065,7 +1218,7 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Content!B:B,A9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1073,10 +1226,10 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K9">
@@ -1092,7 +1245,7 @@
       </c>
       <c r="B10">
         <f>COUNTIF(Content!B:B,A10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1100,10 +1253,10 @@
       <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="K10">
@@ -1119,7 +1272,7 @@
       </c>
       <c r="B11">
         <f>COUNTIF(Content!B:B,A11)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1127,12 +1280,20 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
       <c r="K11">
         <v>0</v>
       </c>
@@ -1148,17 +1309,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207FEB07-A67A-4617-8B73-304D937D831E}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="7" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="111" customWidth="1"/>
+    <col min="5" max="5" width="119" customWidth="1"/>
+    <col min="6" max="7" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1192,20 +1355,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1215,19 +1374,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1235,22 +1382,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1258,45 +1393,29 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1304,22 +1423,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1327,68 +1434,48 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1396,69 +1483,310 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1471,9 +1799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444BD956-8AE9-416D-A362-3A03BEABFA02}">
   <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,297 +1823,297 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" t="s">
         <v>102</v>
       </c>
-      <c r="P2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" t="s">
-        <v>114</v>
-      </c>
       <c r="S2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
         <v>91</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" t="s">
         <v>103</v>
       </c>
-      <c r="M3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>106</v>
-      </c>
-      <c r="P3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" t="s">
-        <v>115</v>
-      </c>
-      <c r="S3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="N4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="P5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">

--- a/frontend/data/wasteitemsexcel.xlsx
+++ b/frontend/data/wasteitemsexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\KUL\Thesis\data_waste_collection_app\frontend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0481C3-14F0-4005-A1DB-97173B31BF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E6DA6-5A99-424F-9C9C-E142F828549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{C9F1FE1B-63EA-4E9A-B67A-DB8A9DD9CABD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -172,12 +172,6 @@
     <t>Spanish name</t>
   </si>
   <si>
-    <t>image1.png</t>
-  </si>
-  <si>
-    <t>image2.png</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
@@ -521,6 +515,27 @@
   </si>
   <si>
     <t>De verpakking van snoep en snacks zijn niet recycleerbaar</t>
+  </si>
+  <si>
+    <t>item1image1.png</t>
+  </si>
+  <si>
+    <t>item1image2.png</t>
+  </si>
+  <si>
+    <t>item2image1.png</t>
+  </si>
+  <si>
+    <t>item3image1.png</t>
+  </si>
+  <si>
+    <t>item4image1.png</t>
+  </si>
+  <si>
+    <t>item6image1.png</t>
+  </si>
+  <si>
+    <t>item7image1.png</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1159,10 @@
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
@@ -1287,10 +1302,10 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
@@ -1311,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207FEB07-A67A-4617-8B73-304D937D831E}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4"/>
@@ -1374,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1385,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1396,13 +1411,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
@@ -1415,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1426,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1437,13 +1452,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
@@ -1456,13 +1471,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
@@ -1475,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1486,13 +1501,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
@@ -1505,13 +1520,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
@@ -1524,13 +1539,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
@@ -1543,13 +1558,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
         <v>143</v>
-      </c>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>145</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
@@ -1562,13 +1577,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
@@ -1581,13 +1596,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
@@ -1600,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1611,7 +1626,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1622,13 +1637,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
@@ -1641,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1652,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
@@ -1671,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -1690,13 +1705,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
@@ -1709,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1720,13 +1735,13 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
@@ -1739,13 +1754,13 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
@@ -1758,13 +1773,13 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
@@ -1777,13 +1792,13 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -1823,297 +1838,297 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
       <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
       <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
         <v>87</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>88</v>
       </c>
-      <c r="N2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" t="s">
-        <v>90</v>
-      </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" t="s">
         <v>102</v>
-      </c>
-      <c r="S2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
       <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>92</v>
       </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="L4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="Q4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="L5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="Q5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
@@ -2128,23 +2143,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cd9202a6-e211-4275-8e27-b09f1131300c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100371174F9DAA68943A4F64D1C7FA5190F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e4f3fe012b06e40ce9d5bc16e3e412a5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cd9202a6-e211-4275-8e27-b09f1131300c" xmlns:ns4="61dace89-6e26-49db-a801-3b0b4dff7cd3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="526ac9343ee1d1ddb35fdc31bf83d2e3" ns3:_="" ns4:_="">
     <xsd:import namespace="cd9202a6-e211-4275-8e27-b09f1131300c"/>
@@ -2335,32 +2333,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEF2F89-7996-4971-8EDE-6D5F154A3C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="61dace89-6e26-49db-a801-3b0b4dff7cd3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cd9202a6-e211-4275-8e27-b09f1131300c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9E4F48-BA33-4883-999F-8D8FBDB5FA64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2377,4 +2367,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7472511-D9E6-484D-AD19-CFCD51FA7DA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FEF2F89-7996-4971-8EDE-6D5F154A3C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cd9202a6-e211-4275-8e27-b09f1131300c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="61dace89-6e26-49db-a801-3b0b4dff7cd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>